--- a/TT.xlsx
+++ b/TT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TransitusNexGen15\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED891E73-430E-4830-B08F-F06E937509D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{285D3276-4C48-478B-9A89-DB51720C8E59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,12 +16,11 @@
     <sheet name="Test-Cases" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="51">
   <si>
     <t>TestScenarioID</t>
   </si>
@@ -242,13 +241,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:K18" totalsRowShown="0">
-  <autoFilter ref="A1:K18" xr:uid="{00000000-0009-0000-0100-000001000000}">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="Step 1"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:K18" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="TestScenarioID"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="TestCaseID"/>
@@ -554,7 +547,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -633,7 +626,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
         <v>18</v>
       </c>
@@ -647,7 +640,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
         <v>22</v>
       </c>
@@ -661,7 +654,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F5" t="s">
         <v>26</v>
       </c>
@@ -698,7 +691,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F7" t="s">
         <v>19</v>
       </c>
@@ -735,7 +728,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
         <v>18</v>
       </c>
@@ -749,7 +742,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
         <v>22</v>
       </c>
@@ -763,7 +756,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F11" t="s">
         <v>26</v>
       </c>
@@ -800,7 +793,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F13" t="s">
         <v>19</v>
       </c>
@@ -811,7 +804,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F14" t="s">
         <v>23</v>
       </c>
@@ -844,8 +837,11 @@
       <c r="H15" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
         <v>18</v>
       </c>
@@ -859,7 +855,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="5:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
         <v>22</v>
       </c>
@@ -873,7 +869,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="5:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:8" x14ac:dyDescent="0.25">
       <c r="F18" t="s">
         <v>26</v>
       </c>
